--- a/agents/RVFV/RVFV-Data-Contents.xlsx
+++ b/agents/RVFV/RVFV-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">RVF is a disease listed in the World Organisation for Animal Health ({ref009:OIE}) Terrestrial Animal Health Code and must be reported to the OIE. The map to the right displays outbreak points reported to the OIE early warning system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">RVF is a disease listed in the World Organisation for Animal Health ({ref009:WOAH}) Terrestrial Animal Health Code and must be reported to the WOAH. The map to the right displays outbreak points reported to the WOAH early warning system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the OIE monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the OIE in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
+    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the WOAH monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the WOAH in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">Animal Health Impact</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical Disease Card} for a key summary of the disease in animal hosts.</t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical Disease Card} for a key summary of the disease in animal hosts.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing the health effects of this pathogen in host animal species. Scroll down through the content.</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">Virus characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical Disease Card} for a key summary of the virus characteristics. </t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical Disease Card} for a key summary of the virus characteristics. </t>
   </si>
   <si>
     <t xml:space="preserve">Virus survival outside living hosts</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">Transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical Disease Card} for a key summary of the disease transmission and epidemiological parameters.</t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical Disease Card} for a key summary of the disease transmission and epidemiological parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing host infectiousness. Scroll down through the content.</t>
@@ -261,19 +261,19 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">According to the {ref010:OIE Terrestrial Manual}, laboratory confirmation of clinical cases should require a combination of at least two positive results from two different diagnostic test methods; either positive for virus/viral RNA and antibodies or positive for IgM or IgG antibodies with demonstration of rising titres between paired sera samples collected 2–4 weeks apart.</t>
+    <t xml:space="preserve">According to the {ref010:WOAH Terrestrial Manual}, laboratory confirmation of clinical cases should require a combination of at least two positive results from two different diagnostic test methods; either positive for virus/viral RNA and antibodies or positive for IgM or IgG antibodies with demonstration of rising titres between paired sera samples collected 2–4 weeks apart.</t>
   </si>
   <si>
     <t xml:space="preserve">Agent detection</t>
   </si>
   <si>
-    <t xml:space="preserve">RVFV can be isolated from blood and several organs. The recommended tests by the OIE for confirmation of clinical cases are the virus isolation in cell culture and the RT-PCR ({ref011:OIE, 2021}).</t>
+    <t xml:space="preserve">RVFV can be isolated from blood and several organs. The recommended tests by the WOAH for confirmation of clinical cases are the virus isolation in cell culture and the RT-PCR ({ref011:WOAH, 2021}).</t>
   </si>
   <si>
     <t xml:space="preserve">Antibodies detection</t>
   </si>
   <si>
-    <t xml:space="preserve">Suitable tests for detection of immune response, immune status of individual pre- and post-vaccinated animals, identification of prevalence of infection and individual animal freedom from infection prior to movement include enzyme-linked immunosorbent (ELISA) assay and PRNT ({ref011:OIE,2021}). Identification of specific antibodies is mostly achieved by IgM and IgG detection ELISAs or the plaque reduction neutralization test (PRNT); the latter is the most specific but can only be performed with live virus. IgM ELISAs and virus neutralization tests can detect earlier antibodies (4 days post-infection) than IgG ELISAs (from 8 days post-infection) ({ref034:Kortekaas et al., 2013}).</t>
+    <t xml:space="preserve">Suitable tests for detection of immune response, immune status of individual pre- and post-vaccinated animals, identification of prevalence of infection and individual animal freedom from infection prior to movement include enzyme-linked immunosorbent (ELISA) assay and PRNT ({ref011:WOAH,2021}). Identification of specific antibodies is mostly achieved by IgM and IgG detection ELISAs or the plaque reduction neutralization test (PRNT); the latter is the most specific but can only be performed with live virus. IgM ELISAs and virus neutralization tests can detect earlier antibodies (4 days post-infection) than IgG ELISAs (from 8 days post-infection) ({ref034:Kortekaas et al., 2013}).</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -309,7 +309,7 @@
     <t xml:space="preserve">Vectors</t>
   </si>
   <si>
-    <t xml:space="preserve">RVFV is transmitted by a broad range of mosquito species. &lt;i&gt;Aedes&lt;/i&gt; mosquitoes preferably feed on domestic and wild ruminants, who act as amplifier of RVFV, leading to expansion of disease ({ref008:OIE technical disease card}). Rodents and bats have also been suggested to be somehow involved in the cycle ({ref045:Hubálek et al., 2014}). Visit the Transmission section of this story map for further information.</t>
+    <t xml:space="preserve">RVFV is transmitted by a broad range of mosquito species. &lt;i&gt;Aedes&lt;/i&gt; mosquitoes preferably feed on domestic and wild ruminants, who act as amplifier of RVFV, leading to expansion of disease ({ref008:WOAH technical disease card}). Rodents and bats have also been suggested to be somehow involved in the cycle ({ref045:Hubálek et al., 2014}). Visit the Transmission section of this story map for further information.</t>
   </si>
   <si>
     <t xml:space="preserve">The map on the right shows the reported presence of various species of &lt;i&gt;Aedes, Anopheles&lt;/i&gt;, and &lt;i&gt;Culex&lt;/i&gt; mosquitoes in primary sources.</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -487,7 +487,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -514,7 +514,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2009. Rift Valley Fever. OIE Techincal Disease Cards 2009. OIE, Paris, France.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2009. Rift Valley Fever. WOAH Techincal Disease Cards 2009. WOAH, Paris, France.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Animal_Health_in_the_World/docs/pdf/Disease_cards/RIFT_VALLEY_FEVER.pdf</t>
@@ -550,13 +550,13 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Rift Valley Fever- Chapter 1.1. OIE Terrestial Code 2021. OIE, Paris, France.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Rift Valley Fever- Chapter 1.1. WOAH Terrestial Code 2021. WOAH, Paris, France.</t>
   </si>
   <si>
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Rift Valley Fever- Chapter 3.1.18. OIE Terrestial Manual 2021. OIE, Paris, France.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Rift Valley Fever- Chapter 3.1.18. WOAH Terrestial Manual 2021. WOAH, Paris, France.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.01.18_RVF.pdf</t>

--- a/agents/RVFV/RVFV-Data-Contents.xlsx
+++ b/agents/RVFV/RVFV-Data-Contents.xlsx
@@ -237,7 +237,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. </t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-RVFV.html</t>
+    <t xml:space="preserve">PathogenSurvival-RVFV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/RVFV/RVFV-Data-Contents.xlsx
+++ b/agents/RVFV/RVFV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\EFSA-disease-profiles\agents\RVFV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\RVFV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3047A43D-2DD0-4EE5-B1DA-C1FBE321F564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0007BD-6BE6-44F0-A7B0-187D1FDA83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3660" yWindow="6380" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="303">
   <si>
     <t>ID</t>
   </si>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>An inactivated vaccine for human use has been created, but currently is not licensed and not commercially available. It has been tested in workers with high risk of exposure under the strict control of health authorities ({ref040:WHO, 2016}).</t>
-  </si>
-  <si>
-    <t>RVF_pathogen.jpg</t>
   </si>
   <si>
     <t>Treatments</t>
@@ -916,6 +913,24 @@
   </si>
   <si>
     <t>Vaccines-RVFV.html</t>
+  </si>
+  <si>
+    <t>A summary of the disease in animal hosts is given in the {ref008:WOAH Technical disease card}.</t>
+  </si>
+  <si>
+    <t>The panel to the right summarizes all evidence collected by EFSA from published studies describing natural infections with this agent (as opposed to experimental infections, summarized in the next section). Scroll down through the content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering studies investigating natural infections with this agent, and published in peer-reviewed literature in English since 1970. </t>
+  </si>
+  <si>
+    <t>*The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+  </si>
+  <si>
+    <t>Experimental Inf.</t>
+  </si>
+  <si>
+    <t>Disease-RVFV.html</t>
   </si>
 </sst>
 </file>
@@ -931,7 +946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,6 +956,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,9 +984,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,15 +1285,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1298,7 +1327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1315,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1332,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1349,7 +1378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1366,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1383,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1400,7 +1429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1417,7 +1446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1434,7 +1463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1451,7 +1480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1468,7 +1497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1485,7 +1514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1502,7 +1531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1519,7 +1548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1536,7 +1565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1553,7 +1582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1570,7 +1599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1587,7 +1616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1604,7 +1633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1621,7 +1650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1638,7 +1667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1655,7 +1684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1672,7 +1701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1689,7 +1718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1723,7 +1752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1740,7 +1769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9</v>
       </c>
@@ -1757,7 +1786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1774,437 +1803,437 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>7</v>
+      </c>
+      <c r="B37" s="3">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="41" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>6</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>7</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>8</v>
       </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>9</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>10</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>11</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>12</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B50" s="2">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>13</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E51" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>14</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B52" s="2">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>15</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
+      <c r="B53" s="2">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>2</v>
       </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>7</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>9</v>
-      </c>
       <c r="B56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2213,675 +2242,675 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>10</v>
       </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>11</v>
       </c>
-      <c r="B58">
-        <v>4</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>12</v>
       </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>13</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>14</v>
       </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>15</v>
       </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>16</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>26</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>17</v>
       </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>26</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>18</v>
       </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
         <v>10</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D72" t="s">
         <v>56</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
         <v>9</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>2</v>
       </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>6</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>7</v>
-      </c>
-      <c r="B72">
-        <v>5</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>8</v>
-      </c>
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>9</v>
-      </c>
-      <c r="B74">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>5</v>
-      </c>
-      <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>10</v>
-      </c>
-      <c r="B75">
-        <v>5</v>
-      </c>
-      <c r="C75">
-        <v>5</v>
-      </c>
-      <c r="D75" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>11</v>
-      </c>
-      <c r="B76">
-        <v>5</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>12</v>
-      </c>
-      <c r="B77">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>56</v>
-      </c>
-      <c r="E77" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>11</v>
-      </c>
-      <c r="E82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>6</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>8</v>
       </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>9</v>
       </c>
-      <c r="B86">
-        <v>6</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>10</v>
-      </c>
-      <c r="B87">
-        <v>6</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>11</v>
-      </c>
-      <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>13</v>
-      </c>
-      <c r="B90">
-        <v>6</v>
-      </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>14</v>
-      </c>
-      <c r="B91">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>15</v>
-      </c>
-      <c r="B92">
-        <v>6</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>16</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-      <c r="C93">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
       </c>
       <c r="B94">
         <v>7</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B96">
         <v>7</v>
@@ -2893,12 +2922,12 @@
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -2910,12 +2939,12 @@
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>7</v>
@@ -2927,63 +2956,63 @@
         <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B99">
         <v>7</v>
       </c>
       <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
         <v>10</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>56</v>
       </c>
-      <c r="E99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
       <c r="E100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101">
         <v>8</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -2995,165 +3024,165 @@
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103">
         <v>8</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104">
         <v>8</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B105">
         <v>8</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
         <v>9</v>
       </c>
-      <c r="B108">
-        <v>8</v>
-      </c>
       <c r="C108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B110">
         <v>9</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B111">
         <v>9</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -3165,455 +3194,455 @@
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>9</v>
       </c>
-      <c r="C113" s="1">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B114">
         <v>9</v>
       </c>
-      <c r="C114" s="1">
-        <v>3</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
-      <c r="C115" s="1">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B116">
         <v>9</v>
       </c>
-      <c r="C116" s="1">
-        <v>4</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120" s="1">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>8</v>
-      </c>
-      <c r="B117">
-        <v>9</v>
-      </c>
-      <c r="C117" s="1">
-        <v>4</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>9</v>
-      </c>
-      <c r="B118">
-        <v>9</v>
-      </c>
-      <c r="C118" s="1">
-        <v>3</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>10</v>
-      </c>
-      <c r="B119">
-        <v>9</v>
-      </c>
-      <c r="C119" s="1">
-        <v>3</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>11</v>
-      </c>
-      <c r="B120">
-        <v>9</v>
-      </c>
-      <c r="C120" s="1">
-        <v>5</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>12</v>
-      </c>
-      <c r="B121">
-        <v>9</v>
-      </c>
-      <c r="C121" s="1">
-        <v>5</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>13</v>
-      </c>
-      <c r="B122">
-        <v>9</v>
-      </c>
-      <c r="C122" s="1">
-        <v>10</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>5</v>
-      </c>
-      <c r="B123">
-        <v>9</v>
-      </c>
-      <c r="C123">
-        <v>10</v>
-      </c>
-      <c r="D123" t="s">
-        <v>56</v>
-      </c>
-      <c r="E123" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1</v>
       </c>
       <c r="B124">
         <v>10</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>9</v>
-      </c>
-      <c r="E124" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>2</v>
       </c>
       <c r="B125">
         <v>10</v>
       </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B126">
         <v>10</v>
       </c>
-      <c r="C126">
-        <v>5</v>
-      </c>
-      <c r="D126" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B127">
         <v>10</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>12</v>
       </c>
-      <c r="D127" t="s">
-        <v>121</v>
-      </c>
-      <c r="E127" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
       <c r="B128">
-        <v>11</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B129">
-        <v>11</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1">
+        <v>10</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>11</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B131">
         <v>11</v>
       </c>
       <c r="C131">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B132">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133">
         <v>12</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>2</v>
-      </c>
-      <c r="B133">
-        <v>12</v>
-      </c>
-      <c r="C133">
-        <v>3</v>
-      </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E133" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <v>12</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>12</v>
       </c>
       <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137">
         <v>10</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D137" t="s">
         <v>56</v>
       </c>
-      <c r="E135" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1</v>
-      </c>
-      <c r="B136">
-        <v>13</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
         <v>9</v>
       </c>
-      <c r="E136" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="E138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>2</v>
       </c>
-      <c r="B137">
-        <v>13</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="D137" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>3</v>
-      </c>
-      <c r="B138">
-        <v>13</v>
-      </c>
-      <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>4</v>
-      </c>
       <c r="B139">
         <v>13</v>
       </c>
@@ -3624,12 +3653,12 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B140">
         <v>13</v>
@@ -3641,27 +3670,27 @@
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B141">
         <v>13</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="E141" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3675,10 +3704,10 @@
         <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2</v>
       </c>
@@ -3692,10 +3721,10 @@
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3709,10 +3738,10 @@
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>4</v>
       </c>
@@ -3726,10 +3755,10 @@
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5</v>
       </c>
@@ -3737,16 +3766,16 @@
         <v>14</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3754,52 +3783,52 @@
         <v>14</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E147" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C148">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149">
         <v>15</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150">
         <v>15</v>
@@ -3811,12 +3840,12 @@
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B151">
         <v>15</v>
@@ -3828,12 +3857,12 @@
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152">
         <v>15</v>
@@ -3845,12 +3874,12 @@
         <v>16</v>
       </c>
       <c r="E152" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B153">
         <v>15</v>
@@ -3862,92 +3891,194 @@
         <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B154">
         <v>15</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E154" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>16</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157">
+        <v>16</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>5</v>
+      </c>
+      <c r="B159">
+        <v>16</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160">
+        <v>16</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>7</v>
-      </c>
-      <c r="B155">
-        <v>15</v>
-      </c>
-      <c r="C155">
-        <v>4</v>
-      </c>
-      <c r="D155" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>16</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>8</v>
-      </c>
-      <c r="B156">
-        <v>15</v>
-      </c>
-      <c r="C156">
-        <v>4</v>
-      </c>
-      <c r="D156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>9</v>
-      </c>
-      <c r="B157">
-        <v>15</v>
-      </c>
-      <c r="C157">
-        <v>4</v>
-      </c>
-      <c r="D157" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>16</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>10</v>
-      </c>
-      <c r="B158">
-        <v>15</v>
-      </c>
-      <c r="C158">
-        <v>4</v>
-      </c>
-      <c r="D158" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3962,647 +4093,647 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>157</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>160</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>163</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
         <v>164</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>166</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>167</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>169</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>170</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>172</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>173</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>176</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>178</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>179</v>
       </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>180</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>181</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>183</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
         <v>184</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>186</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
         <v>187</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>189</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
         <v>190</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>192</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
         <v>193</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>195</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
         <v>196</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>198</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
         <v>199</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>201</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" t="s">
         <v>202</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>204</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" t="s">
         <v>205</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>207</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" t="s">
         <v>208</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>210</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" t="s">
         <v>211</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>213</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" t="s">
         <v>214</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>216</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
         <v>217</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>219</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
         <v>220</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>222</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" t="s">
         <v>223</v>
       </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>225</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
         <v>226</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>228</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" t="s">
         <v>229</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>231</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" t="s">
         <v>232</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>234</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" t="s">
         <v>235</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>237</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" t="s">
         <v>238</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>240</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D30" t="s">
         <v>241</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>243</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" t="s">
         <v>244</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>246</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>247</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>249</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>250</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>252</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>253</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>255</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" t="s">
         <v>256</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>258</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>259</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
         <v>261</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>262</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>264</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>265</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>267</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>268</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>270</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>271</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>273</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>274</v>
       </c>
-      <c r="D41" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>276</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" t="s">
         <v>277</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>279</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>280</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
         <v>282</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>283</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
         <v>285</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>287</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>288</v>
-      </c>
-      <c r="D46" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
